--- a/src/assets/excel/escudos.xlsx
+++ b/src/assets/excel/escudos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Escudos" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -412,87 +412,79 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Ander</v>
-      </c>
-      <c r="B2">
-        <v>51926500744</v>
+        <v>AngelTG2</v>
+      </c>
+      <c r="B2" t="str">
+        <v>584121633097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>AngelTG2</v>
-      </c>
-      <c r="B3">
-        <v>584121633097</v>
+        <v>Axel</v>
+      </c>
+      <c r="B3" t="str">
+        <v>5215538901631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Axel</v>
-      </c>
-      <c r="B4">
-        <v>5215538901631</v>
+        <v>Kitana</v>
+      </c>
+      <c r="B4" t="str">
+        <v>50683267977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Kitana</v>
-      </c>
-      <c r="B5">
-        <v>50683267977</v>
+        <v>Jony</v>
+      </c>
+      <c r="B5" t="str">
+        <v>5493815768514</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Jony</v>
-      </c>
-      <c r="B6">
-        <v>5493815768514</v>
+        <v>Ashborn</v>
+      </c>
+      <c r="B6" t="str">
+        <v>584162672027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Ashborn</v>
-      </c>
-      <c r="B7">
-        <v>584162672027</v>
+        <v>LucasArg</v>
+      </c>
+      <c r="B7" t="str">
+        <v>543489661644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>LucasArg</v>
-      </c>
-      <c r="B8">
-        <v>543489661644</v>
+        <v>Brandon</v>
+      </c>
+      <c r="B8" t="str">
+        <v>525584183166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Brandon</v>
-      </c>
-      <c r="B9">
-        <v>525584183166</v>
+        <v>Yoel</v>
+      </c>
+      <c r="B9" t="str">
+        <v>584242029084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Yoel</v>
-      </c>
-      <c r="B10">
-        <v>584242029084</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
         <v>Jeni</v>
       </c>
-      <c r="B11">
+      <c r="B10" t="str">
         <v>56931235619</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/assets/excel/escudos.xlsx
+++ b/src/assets/excel/escudos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,9 +482,17 @@
         <v>56931235619</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>JonyG2025</v>
+      </c>
+      <c r="B11" t="str">
+        <v>543815768514</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
   </ignoredErrors>
 </worksheet>
 </file>